--- a/Projects/MARSRU_PROD/Data/2020_06_14/KPIs for DB - MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/KPIs for DB - MARS KPIs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -37,13 +37,7 @@
     <t xml:space="preserve">MARS KPIs</t>
   </si>
   <si>
-    <t xml:space="preserve">Влаж.корма Марс внутри выкладки в порядке: Whs - Shb Min Pch - Prf Fit - Shb Pch -Nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виск апп. микс гов/ягн 24*85г  - [Кол-во горизонтальных фэйсов на основной полке]</t>
+    <t xml:space="preserve">Сум размер Sh + PF + Cesar + N&amp;T + Dreamies + С&amp;T Pedegree (в метрах) на всех полках</t>
   </si>
 </sst>
 </file>
@@ -152,16 +146,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="145.862244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="19.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="153.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,41 +177,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>6048</v>
+        <v>6070</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>6048</v>
+        <v>6070</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>6049</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>6049</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>5036</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>5036</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MARSRU_PROD/Data/2020_06_14/KPIs for DB - MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/KPIs for DB - MARS KPIs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="87">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -37,7 +37,250 @@
     <t xml:space="preserve">MARS KPIs</t>
   </si>
   <si>
+    <t xml:space="preserve">Среднее кол-во полок c кормами и лакомствами для кошек на стеллаже</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее кол-во полок c кормами и лакомствами для собак на стеллаже</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите колличество стеллажей кошки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество стеллажей собаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количсетво  стеллажей всей категории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas - Рагу говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas - Желе говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas - Рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas - Желе курица 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitekat говядина в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitekat курица в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitekat кролик в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheba - ломтики в соусе с курицей и индейкой 85г [Кол-во гориз-х фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Fit - для стерил. Кошек с курицей 85г [Кол-во горизонтальных фэйсов на осн. полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedigree говядина в соусе 100г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas - для котят рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas - паштет курица/индейка 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите планограмму в зависимости от фактического размера выкладки Марс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум. лин. размер влажн. однопор. кормов Wh pouch мин. на 20% &gt; любого другого премиум бренда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум. лин. размер влажн. однопор. кормов  PFt + Sh  мин на 25% &gt; любого др. суперпрем бренда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP 12 SKU расположены на полках 3-6 вкл. (для Гипермаркетов - 2-6 вкл)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум размер МАРС катег. кошки (в метрах) на всех полках (вкл лаком на осн полке, БЕЗ Catsan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум размер всей катег. кошки (в метрах) на всех полках(вк лаком на осн полке, БЕЗ liter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В торговой точке присутствует частная марка в категории кошки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум размер МАРС катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум размер всей катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Категория выстроена в единую линию единым блоком или образует внутренний угол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Катег. распол. вне тупика и наход. дальше 3м от входа/выхода и касс зоны (1м для магаз. 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В торговой точке присутствует частная марка в категории собаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бренд-блок Whiskas - самый большой в категории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выклад. МАРС верт. бренд-блоками, прямоуг., с четким раздел. на типы прод. (сух/влаж)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕстьЦА: Кат выстр либо в ед линию, либо в две линии строго др. напр. др. (лицом др к др)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В магазине есть центральная аллея (ЦА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕстьЦА: Катег тов д/жив примык к ЦНТР АЛ, виз-но доступна покуп-лю по ходу движ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕстьЦА: Катег тов д/жив примык к ПРОМО АЛ виз-но доступна покуп-лю и наход-ся &gt;5м от входа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассорт для Кот/Щен и Senior сгруп (сух и влаж) распол внутри соответст бренд-блоков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WH-PF -SH, NT, SH трэй  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В наличии ценники для каждого SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум лин размер влажных однопорц корм KEK pouch мин на 50% &gt; любого бренда в эконом паучах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выкладка Mars Dogs не меньше 15% от общей выкладки Mars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вык Апп. Микс с 1-й стороны сосед с Wh pouch, с др - с PF pouch, либо Sh mini, либо Fel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В магазине есть ДМП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество сцен ДМП Nestle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество навесок с лакомствами для кошек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество навесок с лакомствами для собак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В тт есть выделен секция лакомств для кошек и/или собак с присутст  на ней прод Марс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В тт В ПРИЛЕГ К КАС ЗОНЕ присутт лаком для кош и/или соб Марс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НетЦА: Категория выстроена в единую линию единым блоком или образует внутренний угол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НетЦА: Катег распол вне тупика и находится дальше 5м от входа/выхода и кассовой зоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheba - ломтики в соусе с телят. и яз. 85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-MARS KPIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум раз выклад Др произ (в м) на всех полках для кат кош (вкл лаком на осн полке БЕЗ Liter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум раз выклад Др произ (в м) на всех полках для кат соб (вкл лаком на осн полке)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля полки Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU Другие производители</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU MARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля ассортимента  Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS Другие производители</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влаж.корма Марс внутри выкл. кошек в порядке: Whs Pch - PFit - Shb Pch - N&amp;T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas Meaty говядина 28*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сум размер Sh + PF + Cesar + N&amp;T + Dreamies + С&amp;T Pedegree (в метрах) на всех полках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кат кормов разм в 1 зале по ходу движ покуп Drog SS или в рад 3 м от места расчета Drog BTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кат корм прим или наход в рад 3 м от центра выкл одной из приор категории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Категория располагается вне тупика и находится дальше 3м от входа/выхода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В торговой точке присутствует хотя бы 1 линия кормов Марс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В тт есть ДМП Марс (с cat пауч + лаком) в прикас зоне или в приоритетной категории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WHсPF -SH, NT, SH трэй </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas и Kitekat pouch располагаются рядом - единым неразрывным блоком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP 12 SKU расположены в соответствии с планограммой: с 3 полки по 6-ю включительно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассорт для Кот/Щен и Senior сгруп (сух/влаж) С распол внутр соответс бренд блоков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В магазине тип выкладки А</t>
   </si>
 </sst>
 </file>
@@ -47,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -69,21 +312,41 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -121,12 +384,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -138,6 +401,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -146,16 +469,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="153.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.5918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="162.132653061224"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -172,18 +496,1194 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
+        <v>4264</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>4264</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>4351</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>4351</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4783</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4783</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4784</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4784</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>4785</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>4785</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>4268</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4268</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>4273</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>4273</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>4274</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4274</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>4276</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4276</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>4282</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4282</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>4284</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>4284</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>4285</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>4285</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>4275</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4275</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>4277</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4277</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>4283</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4283</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>4510</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>4510</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>4511</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4511</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4254</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4254</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>4513</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>4513</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>4514</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4514</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>4317</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>4317</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>4261</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>4261</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>4262</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4262</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4263</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>4265</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>4265</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>4266</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>4266</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>4255</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>4255</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>4148</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>4148</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>4149</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>4149</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>4150</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>4150</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>4267</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>4267</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>4305</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>4305</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>4306</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>4306</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>4191</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>4191</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>4688</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>4688</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>4256</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>4256</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>4219</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>4219</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>4307</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>4307</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>4315</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>4315</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>4318</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>4318</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>4512</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>4512</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>4515</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>4515</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>4316</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>4316</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>90003</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>90003</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>2527</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2527</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>4697</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>4697</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>4698</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>4630</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>4630</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>4631</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>4631</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>4601</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>4601</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>4602</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>4602</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>4603</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>4603</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>4604</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>4604</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>5070</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>5070</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>6048</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>6048</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>6049</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>6049</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>5036</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>5036</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="n">
         <v>6070</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C69" s="3" t="n">
         <v>6070</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+      <c r="D69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>4697</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>4697</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>4698</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>4259</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>4259</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>4200</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>4260</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>4260</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>4269</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>4269</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>4270</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>4271</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>4271</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>4272</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>4272</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>4358</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>4358</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>4636</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>4636</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>4647</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>4647</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>4648</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>4648</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>4649</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>4649</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>4650</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>4650</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>4651</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>4651</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>4704</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>4704</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
